--- a/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第8章演習問題1_健康食品・化粧品販売額.xlsx
+++ b/xlsx/データアナリティクス基礎/演習問題_データアナリティクス基礎/第8章演習問題1_健康食品・化粧品販売額.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\データセット\演習問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\演習問題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AC623-D91C-48C9-8158-7F68B471FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8792A49-0456-416D-AB8E-00F7737585D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D5F0D8C2-F11B-428A-9CC1-CB9637F9DCF4}"/>
+    <workbookView xWindow="13880" yWindow="0" windowWidth="24610" windowHeight="20340" xr2:uid="{D5F0D8C2-F11B-428A-9CC1-CB9637F9DCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -65,12 +65,53 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2014指数</t>
+    <rPh sb="4" eb="6">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014増加率</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017増加率</t>
+    <rPh sb="4" eb="6">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増加率</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +121,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -135,12 +183,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,8 +222,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -189,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,16 +546,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2CD82E-4232-453B-92E0-C3F4C210C5CD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="15.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +569,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>2014</v>
       </c>
@@ -515,8 +592,32 @@
       <c r="C2" s="8">
         <v>726156</v>
       </c>
+      <c r="E2" s="10">
+        <f>B2/B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="10">
+        <f>C2/C$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="11">
+        <f>(B2-B$2)/B$2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(C2-C$2)/C$2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <f>(B2-B$5)/B$5</f>
+        <v>-0.20345861752043728</v>
+      </c>
+      <c r="L2" s="11">
+        <f>(C2-C$5)/C$5</f>
+        <v>-0.20217980058779905</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>2015</v>
       </c>
@@ -526,8 +627,40 @@
       <c r="C3" s="9">
         <v>811167</v>
       </c>
+      <c r="E3" s="10">
+        <f>B3/B$2*100</f>
+        <v>115.75767144999969</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F8" si="0">C3/C$2*100</f>
+        <v>111.70698858096608</v>
+      </c>
+      <c r="H3" s="11">
+        <f>(B3-B$2)/B$2</f>
+        <v>0.15757671449999697</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I8" si="1">(C3-C$2)/C$2</f>
+        <v>0.11706988580966074</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K8" si="2">(B3-B$5)/B$5</f>
+        <v>-7.7942243506022343E-2</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L8" si="3">(C3-C$5)/C$5</f>
+        <v>-0.10877908094597193</v>
+      </c>
+      <c r="N3" s="11">
+        <f>(B3-B2)/B2</f>
+        <v>0.15757671449999697</v>
+      </c>
+      <c r="O3" s="11">
+        <f>(C3-C2)/C2</f>
+        <v>0.11706988580966074</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6">
         <v>2016</v>
       </c>
@@ -537,8 +670,40 @@
       <c r="C4" s="9">
         <v>852185</v>
       </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E8" si="4">B4/B$2*100</f>
+        <v>119.65275795687104</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>117.35563708073747</v>
+      </c>
+      <c r="H4" s="11">
+        <f>(B4-B$2)/B$2</f>
+        <v>0.19652757956871056</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.17355637080737471</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" si="2"/>
+        <v>-4.6916267595414306E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="3"/>
+        <v>-6.3713022221001461E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N8" si="5">(B4-B3)/B3</f>
+        <v>3.3648625253781143E-2</v>
+      </c>
+      <c r="O4" s="11">
+        <f t="shared" ref="O4:O8" si="6">(C4-C3)/C3</f>
+        <v>5.056665273611969E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6">
         <v>2017</v>
       </c>
@@ -548,8 +713,40 @@
       <c r="C5" s="9">
         <v>910175</v>
       </c>
+      <c r="E5" s="10">
+        <f t="shared" si="4"/>
+        <v>125.5427554670278</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>125.34152441073267</v>
+      </c>
+      <c r="H5" s="11">
+        <f>(B5-B$2)/B$2</f>
+        <v>0.25542755467027795</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.2534152441073268</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="5"/>
+        <v>4.9225756353061194E-2</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="6"/>
+        <v>6.8048604469686746E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>2018</v>
       </c>
@@ -559,8 +756,40 @@
       <c r="C6" s="9">
         <v>963666</v>
       </c>
+      <c r="E6" s="10">
+        <f t="shared" si="4"/>
+        <v>132.23193193618715</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>132.70784790045113</v>
+      </c>
+      <c r="H6" s="11">
+        <f>(B6-B$2)/B$2</f>
+        <v>0.32231931936187141</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>0.32707847900451142</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="2"/>
+        <v>5.3282058723939436E-2</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8770016755019638E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="5"/>
+        <v>5.3282058723939436E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <f t="shared" si="6"/>
+        <v>5.8770016755019638E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6">
         <v>2019</v>
       </c>
@@ -570,8 +799,44 @@
       <c r="C7" s="9">
         <v>1008208</v>
       </c>
+      <c r="E7" s="10">
+        <f t="shared" si="4"/>
+        <v>134.66954921691391</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>138.84179157095718</v>
+      </c>
+      <c r="H7" s="11">
+        <f>(B7-B$2)/B$2</f>
+        <v>0.34669549216913931</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>0.38841791570957207</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="2"/>
+        <v>7.2698689111401343E-2</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
+        <v>0.10770785837888318</v>
+      </c>
+      <c r="N7" s="11">
+        <f t="shared" si="5"/>
+        <v>1.8434407219453948E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <f t="shared" si="6"/>
+        <v>4.6221408662337364E-2</v>
+      </c>
+      <c r="Q7" s="12">
+        <f>N6-N7</f>
+        <v>3.4847651504485488E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6">
         <v>2020</v>
       </c>
@@ -580,6 +845,38 @@
       </c>
       <c r="C8" s="9">
         <v>903560</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="4"/>
+        <v>137.48064298684025</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>124.43056312968564</v>
+      </c>
+      <c r="H8" s="11">
+        <f>(B8-B$2)/B$2</f>
+        <v>0.37480642986840268</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.24430563129685631</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="2"/>
+        <v>9.5090214289169445E-2</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="3"/>
+        <v>-7.2678331090174969E-3</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="5"/>
+        <v>2.087401187775919E-2</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.10379604208655357</v>
       </c>
     </row>
   </sheetData>
